--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N2">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O2">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P2">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q2">
-        <v>28.15196790863267</v>
+        <v>25.917798844573</v>
       </c>
       <c r="R2">
-        <v>253.367711177694</v>
+        <v>233.260189601157</v>
       </c>
       <c r="S2">
-        <v>0.0005308222315848997</v>
+        <v>0.0007303189186345429</v>
       </c>
       <c r="T2">
-        <v>0.0005398112503985221</v>
+        <v>0.000740920898694042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
         <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P3">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q3">
-        <v>24.33972002251067</v>
+        <v>28.75808249309022</v>
       </c>
       <c r="R3">
-        <v>219.0574802025961</v>
+        <v>258.822742437812</v>
       </c>
       <c r="S3">
-        <v>0.0004589400123086564</v>
+        <v>0.000810353218431372</v>
       </c>
       <c r="T3">
-        <v>0.0004667117674453041</v>
+        <v>0.0008221170498805469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N4">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O4">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P4">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q4">
-        <v>272.897205975871</v>
+        <v>450.9267482911376</v>
       </c>
       <c r="R4">
-        <v>2456.074853782839</v>
+        <v>4058.340734620238</v>
       </c>
       <c r="S4">
-        <v>0.005145640416312611</v>
+        <v>0.01270633888202784</v>
       </c>
       <c r="T4">
-        <v>0.005232777419546759</v>
+        <v>0.01289079576520481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N5">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O5">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P5">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q5">
-        <v>27.731491514741</v>
+        <v>15.98084185479567</v>
       </c>
       <c r="R5">
-        <v>166.388949088446</v>
+        <v>95.88505112877401</v>
       </c>
       <c r="S5">
-        <v>0.000522893897109003</v>
+        <v>0.0004503125906738743</v>
       </c>
       <c r="T5">
-        <v>0.0003544991042561762</v>
+        <v>0.0003045664945018248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N6">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O6">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P6">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q6">
-        <v>357.9932556543471</v>
+        <v>127.6747103229924</v>
       </c>
       <c r="R6">
-        <v>3221.939300889123</v>
+        <v>1149.072392906932</v>
       </c>
       <c r="S6">
-        <v>0.006750177446760728</v>
+        <v>0.003597653370922385</v>
       </c>
       <c r="T6">
-        <v>0.00686448590720907</v>
+        <v>0.003649880210904597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N7">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O7">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P7">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q7">
-        <v>1660.619416802564</v>
+        <v>1293.942926548933</v>
       </c>
       <c r="R7">
-        <v>14945.57475122308</v>
+        <v>11645.4863389404</v>
       </c>
       <c r="S7">
-        <v>0.0313119746193674</v>
+        <v>0.03646108238431315</v>
       </c>
       <c r="T7">
-        <v>0.03184221603014024</v>
+        <v>0.03699038493765379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N8">
         <v>2.953636</v>
       </c>
       <c r="O8">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P8">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q8">
         <v>1435.74373912685</v>
@@ -948,10 +948,10 @@
         <v>12921.69365214165</v>
       </c>
       <c r="S8">
-        <v>0.02707180890731481</v>
+        <v>0.04045678497944648</v>
       </c>
       <c r="T8">
-        <v>0.02753024675167576</v>
+        <v>0.04104409282082826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N9">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O9">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P9">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q9">
-        <v>16097.57443975116</v>
+        <v>22512.46256837137</v>
       </c>
       <c r="R9">
-        <v>144878.1699577605</v>
+        <v>202612.1631153424</v>
       </c>
       <c r="S9">
-        <v>0.3035294163074291</v>
+        <v>0.6343624092975892</v>
       </c>
       <c r="T9">
-        <v>0.308669426411243</v>
+        <v>0.643571396552696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N10">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O10">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P10">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q10">
-        <v>1635.816487704683</v>
+        <v>797.8415683490756</v>
       </c>
       <c r="R10">
-        <v>9814.898926228101</v>
+        <v>4787.049410094454</v>
       </c>
       <c r="S10">
-        <v>0.03084430052225599</v>
+        <v>0.0224818008247021</v>
       </c>
       <c r="T10">
-        <v>0.02091108151577582</v>
+        <v>0.01520544486002755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N11">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O11">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P11">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q11">
-        <v>21117.19341800171</v>
+        <v>6374.144243974351</v>
       </c>
       <c r="R11">
-        <v>190054.7407620154</v>
+        <v>57367.29819576917</v>
       </c>
       <c r="S11">
-        <v>0.3981773413259784</v>
+        <v>0.1796124030206639</v>
       </c>
       <c r="T11">
-        <v>0.4049201327905537</v>
+        <v>0.1822198215972279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N12">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O12">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P12">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q12">
-        <v>68.43871599555334</v>
+        <v>51.45140972967199</v>
       </c>
       <c r="R12">
-        <v>615.94844395998</v>
+        <v>463.0626875670479</v>
       </c>
       <c r="S12">
-        <v>0.001290453018043713</v>
+        <v>0.001449812082474163</v>
       </c>
       <c r="T12">
-        <v>0.001312305732129663</v>
+        <v>0.001470858885995494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N13">
         <v>2.953636</v>
       </c>
       <c r="O13">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P13">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q13">
-        <v>59.17096777881335</v>
+        <v>57.0898745786631</v>
       </c>
       <c r="R13">
-        <v>532.5387100093201</v>
+        <v>513.808871207968</v>
       </c>
       <c r="S13">
-        <v>0.00111570406954593</v>
+        <v>0.001608694307618693</v>
       </c>
       <c r="T13">
-        <v>0.001134597560200305</v>
+        <v>0.001632047591418448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N14">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O14">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P14">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q14">
-        <v>663.4255351660701</v>
+        <v>895.1692627730256</v>
       </c>
       <c r="R14">
-        <v>5970.829816494631</v>
+        <v>8056.52336495723</v>
       </c>
       <c r="S14">
-        <v>0.01250928617886322</v>
+        <v>0.02522432757132728</v>
       </c>
       <c r="T14">
-        <v>0.01272112020184876</v>
+        <v>0.02559050707332551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N15">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O15">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P15">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q15">
-        <v>67.41651873397001</v>
+        <v>31.72479449458933</v>
       </c>
       <c r="R15">
-        <v>404.49911240382</v>
+        <v>190.348766967536</v>
       </c>
       <c r="S15">
-        <v>0.001271178875885173</v>
+        <v>0.0008939500513965539</v>
       </c>
       <c r="T15">
-        <v>0.0008618034659462238</v>
+        <v>0.0006046183008255171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N16">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O16">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P16">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q16">
-        <v>870.2979071149902</v>
+        <v>253.4568569012942</v>
       </c>
       <c r="R16">
-        <v>7832.681164034911</v>
+        <v>2281.111712111648</v>
       </c>
       <c r="S16">
-        <v>0.01640998876873488</v>
+        <v>0.007141977556146622</v>
       </c>
       <c r="T16">
-        <v>0.01668787784156641</v>
+        <v>0.007245657060680376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N17">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O17">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P17">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q17">
-        <v>23.312565123556</v>
+        <v>26.158773088095</v>
       </c>
       <c r="R17">
-        <v>139.875390741336</v>
+        <v>156.95263852857</v>
       </c>
       <c r="S17">
-        <v>0.0004395723909254535</v>
+        <v>0.0007371091576514882</v>
       </c>
       <c r="T17">
-        <v>0.0002980107813465929</v>
+        <v>0.0004985398073705945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N18">
         <v>2.953636</v>
       </c>
       <c r="O18">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P18">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q18">
-        <v>20.15565341490401</v>
+        <v>29.02546465835333</v>
       </c>
       <c r="R18">
-        <v>120.933920489424</v>
+        <v>174.15278795012</v>
       </c>
       <c r="S18">
-        <v>0.0003800469281392697</v>
+        <v>0.000817887587185762</v>
       </c>
       <c r="T18">
-        <v>0.0002576551310802491</v>
+        <v>0.0005531738629669527</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N19">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O19">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P19">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q19">
-        <v>225.985405602786</v>
+        <v>455.1193007800633</v>
       </c>
       <c r="R19">
-        <v>1355.912433616716</v>
+        <v>2730.71580468038</v>
       </c>
       <c r="S19">
-        <v>0.004261090297382195</v>
+        <v>0.01282447778797401</v>
       </c>
       <c r="T19">
-        <v>0.002888832135789452</v>
+        <v>0.00867376645599612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N20">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O20">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P20">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q20">
-        <v>22.964369809206</v>
+        <v>16.129425895435</v>
       </c>
       <c r="R20">
-        <v>91.85747923682401</v>
+        <v>64.51770358174001</v>
       </c>
       <c r="S20">
-        <v>0.0004330069595356998</v>
+        <v>0.0004544994329492086</v>
       </c>
       <c r="T20">
-        <v>0.0001957064714158088</v>
+        <v>0.0002049321618112133</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N21">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O21">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P21">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q21">
-        <v>296.4532040290021</v>
+        <v>128.8617832268866</v>
       </c>
       <c r="R21">
-        <v>1778.719224174012</v>
+        <v>773.17069936132</v>
       </c>
       <c r="S21">
-        <v>0.005589802881059464</v>
+        <v>0.003631103040190649</v>
       </c>
       <c r="T21">
-        <v>0.003789640929565278</v>
+        <v>0.002455876977525395</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N22">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O22">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P22">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q22">
-        <v>319.042720959798</v>
+        <v>19.191100816053</v>
       </c>
       <c r="R22">
-        <v>2871.384488638182</v>
+        <v>172.719907344477</v>
       </c>
       <c r="S22">
-        <v>0.006015741764854262</v>
+        <v>0.0005407721573671018</v>
       </c>
       <c r="T22">
-        <v>0.006117613187497419</v>
+        <v>0.0005486225025832131</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N23">
         <v>2.953636</v>
       </c>
       <c r="O23">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P23">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q23">
-        <v>275.8389938701321</v>
+        <v>21.294218066548</v>
       </c>
       <c r="R23">
-        <v>2482.550944831189</v>
+        <v>191.647962598932</v>
       </c>
       <c r="S23">
-        <v>0.005201109590615067</v>
+        <v>0.0006000343781040597</v>
       </c>
       <c r="T23">
-        <v>0.005289185916699148</v>
+        <v>0.0006087450281356476</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N24">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O24">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P24">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q24">
-        <v>3092.709803429764</v>
+        <v>333.8933502419019</v>
       </c>
       <c r="R24">
-        <v>27834.38823086787</v>
+        <v>3005.040152177117</v>
       </c>
       <c r="S24">
-        <v>0.05831489737517321</v>
+        <v>0.009408539357461316</v>
       </c>
       <c r="T24">
-        <v>0.05930241010246572</v>
+        <v>0.009545122354439288</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N25">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O25">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P25">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q25">
-        <v>314.277514731873</v>
+        <v>11.833178774169</v>
       </c>
       <c r="R25">
-        <v>1885.665088391238</v>
+        <v>70.999072645014</v>
       </c>
       <c r="S25">
-        <v>0.005925890944759594</v>
+        <v>0.0003334385909152891</v>
       </c>
       <c r="T25">
-        <v>0.004017493880597238</v>
+        <v>0.0002255193944604699</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N26">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O26">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P26">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q26">
-        <v>4057.092660090592</v>
+        <v>94.53805287102799</v>
       </c>
       <c r="R26">
-        <v>36513.83394081533</v>
+        <v>850.8424758392518</v>
       </c>
       <c r="S26">
-        <v>0.07649891427006121</v>
+        <v>0.002663919453832843</v>
       </c>
       <c r="T26">
-        <v>0.07779435771360751</v>
+        <v>0.002702591354846242</v>
       </c>
     </row>
   </sheetData>
